--- a/resultadosnn.xlsx
+++ b/resultadosnn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>País</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>ConvexHull</t>
   </si>
 </sst>
 </file>
@@ -446,20 +449,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G18"/>
+  <dimension ref="B3:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:14">
       <c r="C3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -475,8 +481,20 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -492,8 +510,20 @@
       <c r="G6">
         <v>35721</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N6">
+        <v>27748</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -509,8 +539,20 @@
       <c r="G7">
         <v>9317</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N7">
+        <v>6815</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -526,8 +568,20 @@
       <c r="G8">
         <v>12645</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>194</v>
+      </c>
+      <c r="M8">
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <v>11044</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -543,8 +597,20 @@
       <c r="G9">
         <v>112522</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>734</v>
+      </c>
+      <c r="M9">
+        <v>39.83</v>
+      </c>
+      <c r="N9">
+        <v>98872</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -560,8 +626,20 @@
       <c r="G10">
         <v>135391</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>929</v>
+      </c>
+      <c r="M10">
+        <v>90.81</v>
+      </c>
+      <c r="N10">
+        <v>118545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -577,8 +655,20 @@
       <c r="G11">
         <v>124215</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>1979</v>
+      </c>
+      <c r="M11">
+        <v>1204</v>
+      </c>
+      <c r="N11">
+        <v>105746</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -594,8 +684,14 @@
       <c r="G12">
         <v>1822045</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -606,10 +702,19 @@
         <v>9847</v>
       </c>
       <c r="F13">
-        <v>8327</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>7365</v>
+      </c>
+      <c r="G13">
+        <v>689881</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>9847</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -619,8 +724,20 @@
       <c r="D14">
         <v>9882</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="F14">
+        <v>6900</v>
+      </c>
+      <c r="G14">
+        <v>423052</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>9882</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -630,8 +747,14 @@
       <c r="D15">
         <v>10369</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>10369</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -641,8 +764,14 @@
       <c r="D16">
         <v>16862</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>16862</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -652,8 +781,14 @@
       <c r="D17">
         <v>22775</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>22775</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -661,6 +796,12 @@
         <v>8</v>
       </c>
       <c r="D18">
+        <v>24978</v>
+      </c>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18">
         <v>24978</v>
       </c>
     </row>
